--- a/case_data.xlsx
+++ b/case_data.xlsx
@@ -461,32 +461,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Das vs APCSP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>Das wins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>Criminal aka Fraud</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Criminal</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>Adk</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>Newmans OFfice</t>
         </is>
       </c>
     </row>
